--- a/src/aide_inspiratoire/synthese/indv_albani_2021.xlsx
+++ b/src/aide_inspiratoire/synthese/indv_albani_2021.xlsx
@@ -20,15 +20,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+  <si>
+    <t xml:space="preserve">Study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference</t>
+  </si>
   <si>
     <t xml:space="preserve">Threshold</t>
   </si>
   <si>
+    <t xml:space="preserve">Tres_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tres_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUX_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUC_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensitivity</t>
+  </si>
+  <si>
     <t xml:space="preserve">Specificity</t>
   </si>
   <si>
-    <t xml:space="preserve">Sensitivity</t>
+    <t xml:space="preserve">Spe_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spe_max</t>
   </si>
   <si>
     <t xml:space="preserve">PPV</t>
@@ -37,15 +70,21 @@
     <t xml:space="preserve">NPV</t>
   </si>
   <si>
-    <t xml:space="preserve">AUC</t>
-  </si>
-  <si>
     <t xml:space="preserve">P value</t>
   </si>
   <si>
+    <t xml:space="preserve">albani2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">Flow index</t>
   </si>
   <si>
+    <t xml:space="preserve">Low effort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pmus</t>
+  </si>
+  <si>
     <t xml:space="preserve">RR (breaths min−1)</t>
   </si>
   <si>
@@ -62,6 +101,9 @@
   </si>
   <si>
     <t xml:space="preserve">P0,1 (cmH2O)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:w</t>
   </si>
 </sst>
 </file>
@@ -135,8 +177,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -263,350 +309,434 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="9.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="4.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="9" style="0" width="4.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="7.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="7" style="0" width="9.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="5.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="9.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="9.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="5.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="5.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="5.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="0" width="5.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="7.81"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="0" t="n">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="0" t="n">
         <v>2.6</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="F2" s="0" t="n">
         <v>2.2</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="G2" s="0" t="n">
         <v>2.9</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="H2" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I2" s="0" t="n">
         <v>0.76</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="J2" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="L2" s="0" t="n">
         <v>0.7</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="M2" s="0" t="n">
         <v>0.82</v>
       </c>
-      <c r="H2" s="0" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="I2" s="0" t="n">
+      <c r="N2" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="O2" s="0" t="n">
         <v>0.7</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="P2" s="0" t="n">
         <v>0.82</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="Q2" s="0" t="n">
         <v>0.84</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="R2" s="0" t="n">
         <v>0.81</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="S2" s="0" t="n">
         <v>0.87</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="T2" s="0" t="n">
         <v>0.66</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="U2" s="0" t="n">
         <v>0.61</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="V2" s="0" t="n">
         <v>0.71</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="R2" s="0" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="S2" s="0" t="n">
-        <v>0.83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="0" t="n">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="F3" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="G3" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="H3" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="N3" s="0" t="n">
         <v>0.63</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="O3" s="0" t="n">
         <v>0.44</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="P3" s="0" t="n">
         <v>0.73</v>
       </c>
-      <c r="H3" s="0" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="I3" s="0" t="n">
+      <c r="Q3" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="T3" s="0" t="n">
         <v>0.44</v>
       </c>
-      <c r="J3" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="O3" s="0" t="n">
+      <c r="U3" s="0" t="n">
         <v>0.41</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="V3" s="0" t="n">
         <v>0.52</v>
       </c>
-      <c r="Q3" s="0" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="S3" s="0" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="T3" s="0" t="s">
-        <v>9</v>
+      <c r="W3" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="0" t="n">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="F4" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="G4" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="H4" s="0" t="n">
         <v>0.55</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="I4" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="J4" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P4" s="0" t="n">
         <v>0.62</v>
       </c>
-      <c r="H4" s="0" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="K4" s="0" t="n">
+      <c r="Q4" s="0" t="n">
         <v>0.69</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="R4" s="0" t="n">
         <v>0.66</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="S4" s="0" t="n">
         <v>0.72</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="T4" s="0" t="n">
         <v>0.44</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="U4" s="0" t="n">
         <v>0.41</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="V4" s="0" t="n">
         <v>0.48</v>
       </c>
-      <c r="Q4" s="0" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="R4" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S4" s="0" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="T4" s="0" t="s">
-        <v>9</v>
+      <c r="W4" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="0" t="n">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="0" t="n">
         <v>8.1</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="F5" s="0" t="n">
         <v>7.8</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="G5" s="0" t="n">
         <v>10</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>0.8</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="I5" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="0" t="n">
         <v>0.36</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="M5" s="0" t="n">
         <v>0.56</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="N5" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q5" s="0" t="n">
         <v>0.67</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="R5" s="0" t="n">
         <v>0.64</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="S5" s="0" t="n">
         <v>0.74</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="T5" s="0" t="n">
         <v>0.41</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="U5" s="0" t="n">
         <v>0.38</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="V5" s="0" t="n">
         <v>0.44</v>
       </c>
-      <c r="Q5" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="T5" s="0" t="s">
-        <v>9</v>
+      <c r="W5" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="0" t="n">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="n">
         <v>1.1</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="F6" s="0" t="n">
         <v>0.9</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="G6" s="0" t="n">
         <v>1.3</v>
       </c>
-      <c r="E6" s="0" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>0.73</v>
-      </c>
       <c r="H6" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>0.7</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="L6" s="0" t="n">
         <v>0.61</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>0.74</v>
       </c>
       <c r="M6" s="0" t="n">
         <v>0.8</v>
       </c>
       <c r="N6" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="O6" s="0" t="n">
         <v>0.56</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="P6" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="U6" s="0" t="n">
         <v>0.51</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="V6" s="0" t="n">
         <v>0.64</v>
       </c>
-      <c r="Q6" s="0" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="R6" s="0" t="n">
-        <v>0.69</v>
-      </c>
-      <c r="S6" s="0" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="T6" s="0" t="n">
+      <c r="W6" s="0" t="n">
         <v>0.001</v>
       </c>
     </row>
